--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6836936666666666</v>
+        <v>0.1887043333333333</v>
       </c>
       <c r="H2">
-        <v>2.051081</v>
+        <v>0.566113</v>
       </c>
       <c r="I2">
-        <v>0.07240868516880868</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="J2">
-        <v>0.07240868516880866</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03278766927444444</v>
+        <v>0.009049630812222223</v>
       </c>
       <c r="R2">
-        <v>0.29508902347</v>
+        <v>0.08144667730999999</v>
       </c>
       <c r="S2">
-        <v>0.07240868516880868</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="T2">
-        <v>0.07240868516880866</v>
+        <v>0.02109097403787168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.861699999999999</v>
+        <v>7.8617</v>
       </c>
       <c r="H3">
         <v>23.5851</v>
       </c>
       <c r="I3">
-        <v>0.8326175712099469</v>
+        <v>0.8786809908633213</v>
       </c>
       <c r="J3">
-        <v>0.8326175712099468</v>
+        <v>0.8786809908633211</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>0.3770209263333333</v>
       </c>
       <c r="R3">
-        <v>3.393188336999999</v>
+        <v>3.393188337</v>
       </c>
       <c r="S3">
-        <v>0.8326175712099469</v>
+        <v>0.8786809908633213</v>
       </c>
       <c r="T3">
-        <v>0.8326175712099468</v>
+        <v>0.8786809908633211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>2.690269</v>
       </c>
       <c r="I4">
-        <v>0.09497374362124447</v>
+        <v>0.1002280350988072</v>
       </c>
       <c r="J4">
-        <v>0.09497374362124446</v>
+        <v>0.1002280350988071</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>0.38704900103</v>
       </c>
       <c r="S4">
-        <v>0.09497374362124447</v>
+        <v>0.1002280350988072</v>
       </c>
       <c r="T4">
-        <v>0.09497374362124446</v>
+        <v>0.1002280350988071</v>
       </c>
     </row>
   </sheetData>
